--- a/aat/src/resource/CCD_CNP_27_CaseType_Invalid_NoC_Config.xlsx
+++ b/aat/src/resource/CCD_CNP_27_CaseType_Invalid_NoC_Config.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiranyenigala/Projects/CCD/ccd-definition-store-api/aat/src/resource/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1188BC-BEF0-C545-98FE-0C43B2FD6454}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{920E50BD-A894-A349-AAE9-A7EA2A0D4AA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1080" windowWidth="29180" windowHeight="16620" tabRatio="823" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
     <sheet name="CaseType" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="20" r:id="rId3"/>
+    <sheet name="NoticeOfChangeConfig" sheetId="20" r:id="rId3"/>
     <sheet name="CaseField" sheetId="3" r:id="rId4"/>
     <sheet name="FixedLists" sheetId="4" r:id="rId5"/>
     <sheet name="ComplexTypes" sheetId="5" r:id="rId6"/>
@@ -904,9 +904,6 @@
     <t>caseworker-autotest1</t>
   </si>
   <si>
-    <t>NoCConfig</t>
-  </si>
-  <si>
     <t>CaseTypeId</t>
   </si>
   <si>
@@ -926,6 +923,9 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>NoticeOfChangeConfig</t>
   </si>
 </sst>
 </file>
@@ -1178,7 +1178,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
@@ -1592,7 +1592,7 @@
     <cellStyle name="Normal 3" xfId="27" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
     <cellStyle name="Normal 3 2" xfId="28" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="7">
     <dxf>
       <font>
         <b val="0"/>
@@ -1727,13 +1727,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color rgb="FF000000"/>
         </left>
@@ -1743,6 +1736,13 @@
         <top style="thin">
           <color rgb="FF000000"/>
         </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color rgb="FF000000"/>
         </bottom>
@@ -1784,22 +1784,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1814,7 +1798,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9219C837-720F-E64B-9164-96EDE56C2A71}" name="Table414" displayName="Table414" ref="A3:C7" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="4" tableBorderDxfId="5" totalsRowBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9219C837-720F-E64B-9164-96EDE56C2A71}" name="Table414" displayName="Table414" ref="A3:C7" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{B978CADE-2540-574E-9934-6490D1DA4C14}" name="CaseTypeId" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{20371BCD-6E18-554E-A38B-1502C27E597D}" name="ReasonRequired" dataDxfId="1"/>
@@ -6625,7 +6609,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -6637,31 +6621,31 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="87" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="B1" s="88"/>
       <c r="C1" s="88"/>
     </row>
     <row r="2" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="A2" s="89" t="s">
+        <v>280</v>
+      </c>
+      <c r="B2" s="89" t="s">
         <v>281</v>
       </c>
-      <c r="B2" s="89" t="s">
+      <c r="C2" s="89" t="s">
         <v>282</v>
-      </c>
-      <c r="C2" s="89" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.15">
       <c r="A3" s="90" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B3" s="91" t="s">
+        <v>283</v>
+      </c>
+      <c r="C3" s="92" t="s">
         <v>284</v>
-      </c>
-      <c r="C3" s="92" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.15">
@@ -6669,10 +6653,10 @@
         <v>274</v>
       </c>
       <c r="B4" s="93" t="s">
+        <v>285</v>
+      </c>
+      <c r="C4" s="94" t="s">
         <v>286</v>
-      </c>
-      <c r="C4" s="94" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.15">
@@ -6680,10 +6664,10 @@
         <v>274</v>
       </c>
       <c r="B5" s="93" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C5" s="94" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.15">
@@ -6691,10 +6675,10 @@
         <v>276</v>
       </c>
       <c r="B6" s="95" t="s">
+        <v>285</v>
+      </c>
+      <c r="C6" s="96" t="s">
         <v>286</v>
-      </c>
-      <c r="C6" s="96" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.15">
@@ -6702,10 +6686,10 @@
         <v>276</v>
       </c>
       <c r="B7" s="93" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C7" s="94" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
